--- a/data/trans_dic/P5_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de jardín en su vivienda</t>
+          <t>Población que disfruta de jardín en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>33,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>24,49%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,4; 42,75</t>
+          <t>17,36; 50,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,85; 42,32</t>
+          <t>17,12; 50,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 25,37</t>
+          <t>8,72; 31,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 24,12</t>
+          <t>8,26; 29,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,37; 30,2</t>
+          <t>15,55; 35,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,87; 29,67</t>
+          <t>15,29; 34,89</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>12,69%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 22,73</t>
+          <t>2,56; 20,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 24,85</t>
+          <t>3,73; 23,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 21,25</t>
+          <t>3,53; 22,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,13; 25,12</t>
+          <t>6,67; 27,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 18,66</t>
+          <t>4,86; 17,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,12; 20,8</t>
+          <t>6,82; 20,87</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>14,74%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 18,25</t>
+          <t>10,6; 32,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 41,22</t>
+          <t>13,66; 35,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 14,99</t>
+          <t>5,88; 17,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 13,61</t>
+          <t>4,72; 15,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 14,6</t>
+          <t>9,22; 20,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,56; 25,34</t>
+          <t>9,33; 20,74</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>10,42%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 21,92</t>
+          <t>6,12; 19,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 21,38</t>
+          <t>6,18; 20,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 14,91</t>
+          <t>4,49; 16,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 20,64</t>
+          <t>4,88; 16,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 15,83</t>
+          <t>6,15; 14,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 17,27</t>
+          <t>6,46; 15,19</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>22,04%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,26; 31,83</t>
+          <t>12,93; 33,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,67; 30,49</t>
+          <t>12,29; 32,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,87; 28,71</t>
+          <t>11,7; 35,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,04; 29,22</t>
+          <t>11,84; 35,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,01; 27,39</t>
+          <t>15,31; 31,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,53; 26,82</t>
+          <t>15,07; 31,24</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>20,76%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,42; 31,66</t>
+          <t>16,15; 46,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,34; 32,62</t>
+          <t>16,25; 46,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,99; 19,48</t>
+          <t>4,65; 26,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,69; 19,96</t>
+          <t>4,5; 25,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,59; 22,0</t>
+          <t>13,68; 32,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,85; 22,43</t>
+          <t>13,69; 32,19</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,5%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,56; 21,09</t>
+          <t>15,05; 24,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,2; 24,77</t>
+          <t>15,89; 25,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,17; 15,27</t>
+          <t>10,03; 16,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,55; 15,85</t>
+          <t>10,22; 16,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,22; 17,37</t>
+          <t>13,44; 18,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,15; 19,34</t>
+          <t>13,9; 19,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de jardín en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28687</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>36006</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21234</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23033</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>49922</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>59039</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14948; 43536</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18326; 54399</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10255; 36641</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11066; 39860</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>31663; 71605</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>36852; 84085</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13339</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19305</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13509</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23047</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26849</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>42352</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3503; 27791</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6295; 39040</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4705; 29465</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11005; 45203</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13120; 46280</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22783; 69661</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27264</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37975</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23452</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24851</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>50716</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>62826</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14809; 44932</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22134; 58273</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12655; 38077</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12455; 41745</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>32756; 71974</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39737; 88362</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18359</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>21080</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>17251</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>21112</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>35610</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>42191</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10002; 32404</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11533; 37337</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8596; 31238</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10661; 36226</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21832; 52763</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>26177; 61525</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>30830</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34449</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22423</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>25850</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>53253</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>60299</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17960; 46322</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19348; 50845</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12109; 36923</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13754; 41823</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>37117; 75887</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>41226; 85487</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>27450</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>33401</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>14247</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>17862</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>41697</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>51264</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14574; 41750</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>17759; 50704</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4972; 27935</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6199; 34988</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>26987; 63343</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>33800; 79489</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>145930</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>182216</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>112117</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>135755</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>258047</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>317971</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>113704; 183090</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>141655; 229127</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>87059; 145797</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>105839; 175287</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>218183; 306941</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>267831; 382251</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>